--- a/doc/thesis/pictures/resultate/loesung1/ringing/nosts.xlsx
+++ b/doc/thesis/pictures/resultate/loesung1/ringing/nosts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Average Line Size (Bytes)</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>PCA+DCT</t>
+  </si>
+  <si>
+    <t>helper line</t>
   </si>
 </sst>
 </file>
@@ -494,6 +497,65 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AA$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>helper line</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$AA$3:$AA$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$3:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -502,11 +564,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="298671760"/>
-        <c:axId val="298674504"/>
+        <c:axId val="452464136"/>
+        <c:axId val="452470800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="298671760"/>
+        <c:axId val="452464136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -628,14 +690,16 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298674504"/>
+        <c:crossAx val="452470800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="298674504"/>
+        <c:axId val="452470800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="85"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -754,7 +818,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298671760"/>
+        <c:crossAx val="452464136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -768,6 +832,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1395,16 +1463,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1197427</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>117021</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>557892</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>130628</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>212271</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>21773</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1713,25 +1781,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1745,7 +1813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1770,8 +1838,11 @@
       <c r="K2" t="s">
         <v>1</v>
       </c>
+      <c r="AA2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>64.1933333333333</v>
       </c>
@@ -1796,8 +1867,14 @@
       <c r="K3">
         <v>96.884353999435604</v>
       </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>95</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>53.4508333333333</v>
       </c>
@@ -1822,8 +1899,14 @@
       <c r="K4">
         <v>95.541914133930604</v>
       </c>
+      <c r="AA4">
+        <v>80</v>
+      </c>
+      <c r="AB4">
+        <v>95</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>46.7</v>
       </c>
@@ -1849,7 +1932,7 @@
         <v>94.556093020538896</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>42.18</v>
       </c>
@@ -1875,7 +1958,7 @@
         <v>93.507228416431602</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>38.8333333333333</v>
       </c>
@@ -1901,7 +1984,7 @@
         <v>92.481216198479004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>36.274999999999999</v>
       </c>
@@ -1921,7 +2004,7 @@
         <v>91.726654154870204</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>34.1191666666667</v>
       </c>

--- a/doc/thesis/pictures/resultate/loesung1/ringing/nosts.xlsx
+++ b/doc/thesis/pictures/resultate/loesung1/ringing/nosts.xlsx
@@ -564,11 +564,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="452464136"/>
-        <c:axId val="452470800"/>
+        <c:axId val="252697768"/>
+        <c:axId val="252691888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="452464136"/>
+        <c:axId val="252697768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,10 +597,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -608,16 +605,28 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Median </a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Bytes pro Feldlinie</a:t>
                 </a:r>
               </a:p>
@@ -639,10 +648,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -677,10 +683,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -690,12 +693,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452470800"/>
+        <c:crossAx val="252691888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="452470800"/>
+        <c:axId val="252691888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -726,10 +729,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -737,15 +737,27 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>PSNR-HVS-M</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800" baseline="0"/>
+                  <a:rPr lang="de-CH" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> (dB</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>)</a:t>
                 </a:r>
               </a:p>
@@ -767,10 +779,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -805,10 +814,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -818,7 +824,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452464136"/>
+        <c:crossAx val="252697768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -852,10 +858,7 @@
           <a:pPr>
             <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
